--- a/Documents/新規 Microsoft Excel ワークシート.xlsx
+++ b/Documents/新規 Microsoft Excel ワークシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C34ACB-DC15-472B-B0A0-E1F4F9058F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AFD25D-0839-4DCC-BA34-556F1141F9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-945" yWindow="645" windowWidth="18915" windowHeight="14115" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="780" windowWidth="18915" windowHeight="14115" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPOテストデータ" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
     <sheet name="団体パンチテストデータ" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="1333">
   <si>
     <t>bpo_num</t>
   </si>
@@ -5748,6 +5749,324 @@
   </si>
   <si>
     <t>ﾄﾘﾋｷﾀﾝﾄｳｼｬﾉｶﾅｼﾞｭｳｼｮ</t>
+  </si>
+  <si>
+    <t>answer_date</t>
+  </si>
+  <si>
+    <t>namechg_flg</t>
+  </si>
+  <si>
+    <t>lname_kanji</t>
+  </si>
+  <si>
+    <t>fname_kanji</t>
+  </si>
+  <si>
+    <t>lname_kana</t>
+  </si>
+  <si>
+    <t>fname_kana</t>
+  </si>
+  <si>
+    <t>addrchg_flg</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>pref</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>addr_num</t>
+  </si>
+  <si>
+    <t>bldg_name</t>
+  </si>
+  <si>
+    <t>pref_kana</t>
+  </si>
+  <si>
+    <t>city_kana</t>
+  </si>
+  <si>
+    <t>addrnum_kan</t>
+  </si>
+  <si>
+    <t>bldgkana_nm</t>
+  </si>
+  <si>
+    <t>tel_regist</t>
+  </si>
+  <si>
+    <t>tel_fixed</t>
+  </si>
+  <si>
+    <t>tel_mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>nationchg_flg</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>nation_asia</t>
+  </si>
+  <si>
+    <t>nation_mide</t>
+  </si>
+  <si>
+    <t>nation_weur</t>
+  </si>
+  <si>
+    <t>nation_eeur</t>
+  </si>
+  <si>
+    <t>nation_nam</t>
+  </si>
+  <si>
+    <t>nation_cari</t>
+  </si>
+  <si>
+    <t>nation_latm</t>
+  </si>
+  <si>
+    <t>nation_afrc</t>
+  </si>
+  <si>
+    <t>nation_oce</t>
+  </si>
+  <si>
+    <t>nation_othr</t>
+  </si>
+  <si>
+    <t>name_alpha</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t>visa_limit</t>
+  </si>
+  <si>
+    <t>pep_flag</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>job_other</t>
+  </si>
+  <si>
+    <t>work_or_sch</t>
+  </si>
+  <si>
+    <t>worksch_kan</t>
+  </si>
+  <si>
+    <t>work_tel</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>indus_othr</t>
+  </si>
+  <si>
+    <t>sidejob_flg</t>
+  </si>
+  <si>
+    <t>sidejob_typ</t>
+  </si>
+  <si>
+    <t>sideothr_tx</t>
+  </si>
+  <si>
+    <t>tx_purpose1</t>
+  </si>
+  <si>
+    <t>tx_purpose2</t>
+  </si>
+  <si>
+    <t>tx_purpose3</t>
+  </si>
+  <si>
+    <t>tx_purpose4</t>
+  </si>
+  <si>
+    <t>tx_purpose5</t>
+  </si>
+  <si>
+    <t>tx_purpose6</t>
+  </si>
+  <si>
+    <t>tx_othr_txt</t>
+  </si>
+  <si>
+    <t>tx_type</t>
+  </si>
+  <si>
+    <t>tx_freq</t>
+  </si>
+  <si>
+    <t>tx_amt_once</t>
+  </si>
+  <si>
+    <t>tx_over2m_f</t>
+  </si>
+  <si>
+    <t>tx_over2mfrq</t>
+  </si>
+  <si>
+    <t>tx_over2mam</t>
+  </si>
+  <si>
+    <t>src_salary</t>
+  </si>
+  <si>
+    <t>src_pension</t>
+  </si>
+  <si>
+    <t>src_insur</t>
+  </si>
+  <si>
+    <t>src_exec</t>
+  </si>
+  <si>
+    <t>src_bizin</t>
+  </si>
+  <si>
+    <t>src_inheri</t>
+  </si>
+  <si>
+    <t>src_invincm</t>
+  </si>
+  <si>
+    <t>src_saving</t>
+  </si>
+  <si>
+    <t>src_otherbk</t>
+  </si>
+  <si>
+    <t>src_home</t>
+  </si>
+  <si>
+    <t>src_loan</t>
+  </si>
+  <si>
+    <t>src_other</t>
+  </si>
+  <si>
+    <t>src_oth_txt</t>
+  </si>
+  <si>
+    <t>漢字役職名01</t>
+  </si>
+  <si>
+    <t>共同　代表者０１</t>
+  </si>
+  <si>
+    <t>共同　太郎０１</t>
+  </si>
+  <si>
+    <t>埼玉県川島町八幡団地０１－０１</t>
+  </si>
+  <si>
+    <t>共同　漢字氏名２０１</t>
+  </si>
+  <si>
+    <t>その他業種０１</t>
+  </si>
+  <si>
+    <t>abc123456</t>
+  </si>
+  <si>
+    <t>日本国</t>
+  </si>
+  <si>
+    <t>外交</t>
+  </si>
+  <si>
+    <t>漢字役職名02</t>
+  </si>
+  <si>
+    <t>共同　代表者０２</t>
+  </si>
+  <si>
+    <t>共同　太郎０２</t>
+  </si>
+  <si>
+    <t>埼玉県川島町八幡団地０１－０２</t>
+  </si>
+  <si>
+    <t>共同　漢字氏名２０２</t>
+  </si>
+  <si>
+    <t>その他業種０２</t>
+  </si>
+  <si>
+    <t>漢字役職名03</t>
+  </si>
+  <si>
+    <t>共同　代表者０３</t>
+  </si>
+  <si>
+    <t>共同　太郎０３</t>
+  </si>
+  <si>
+    <t>埼玉県川島町八幡団地０１－０３</t>
+  </si>
+  <si>
+    <t>共同　漢字氏名２０３</t>
+  </si>
+  <si>
+    <t>その他業種０３</t>
+  </si>
+  <si>
+    <t>漢字役職名04</t>
+  </si>
+  <si>
+    <t>共同　代表者０４</t>
+  </si>
+  <si>
+    <t>共同　太郎０４</t>
+  </si>
+  <si>
+    <t>埼玉県川島町八幡団地０１－０４</t>
+  </si>
+  <si>
+    <t>共同　漢字氏名２０４</t>
+  </si>
+  <si>
+    <t>その他業種０４</t>
+  </si>
+  <si>
+    <t>漢字役職名05</t>
+  </si>
+  <si>
+    <t>共同　代表者０５</t>
+  </si>
+  <si>
+    <t>共同　太郎０５</t>
+  </si>
+  <si>
+    <t>埼玉県川島町八幡団地０１－０５</t>
+  </si>
+  <si>
+    <t>共同　漢字氏名２０５</t>
+  </si>
+  <si>
+    <t>その他業種０５</t>
   </si>
 </sst>
 </file>
@@ -5899,7 +6218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5958,11 +6277,17 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6950,7 +7275,7 @@
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>164</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -7061,7 +7386,7 @@
       </c>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>93</v>
       </c>
@@ -7170,7 +7495,7 @@
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
@@ -7279,7 +7604,7 @@
       </c>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>97</v>
       </c>
@@ -7388,7 +7713,7 @@
       </c>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
@@ -7497,7 +7822,7 @@
       </c>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>100</v>
       </c>
@@ -7606,7 +7931,7 @@
       </c>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>101</v>
       </c>
@@ -7715,7 +8040,7 @@
       </c>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>102</v>
       </c>
@@ -7824,7 +8149,7 @@
       </c>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>103</v>
       </c>
@@ -7933,7 +8258,7 @@
       </c>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4" t="s">
         <v>104</v>
       </c>
@@ -8042,7 +8367,7 @@
       </c>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4" t="s">
         <v>105</v>
       </c>
@@ -8151,7 +8476,7 @@
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4" t="s">
         <v>106</v>
       </c>
@@ -8260,7 +8585,7 @@
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="4" t="s">
         <v>107</v>
       </c>
@@ -8369,7 +8694,7 @@
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>165</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -8483,7 +8808,7 @@
       </c>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="4" t="s">
         <v>110</v>
       </c>
@@ -8595,7 +8920,7 @@
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="22"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="4" t="s">
         <v>111</v>
       </c>
@@ -8707,7 +9032,7 @@
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="22"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>112</v>
       </c>
@@ -8819,7 +9144,7 @@
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="22"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="4" t="s">
         <v>113</v>
       </c>
@@ -8931,7 +9256,7 @@
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="22"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="4" t="s">
         <v>114</v>
       </c>
@@ -9043,7 +9368,7 @@
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="22"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4" t="s">
         <v>115</v>
       </c>
@@ -9155,7 +9480,7 @@
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="22"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="4" t="s">
         <v>116</v>
       </c>
@@ -9267,7 +9592,7 @@
       </c>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="22"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="4" t="s">
         <v>117</v>
       </c>
@@ -9379,7 +9704,7 @@
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="22"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="4" t="s">
         <v>118</v>
       </c>
@@ -9491,7 +9816,7 @@
       </c>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32" s="22"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
@@ -9603,7 +9928,7 @@
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="22"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="4" t="s">
         <v>119</v>
       </c>
@@ -9715,7 +10040,7 @@
       </c>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="22"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="4" t="s">
         <v>120</v>
       </c>
@@ -9834,7 +10159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E2AA85-6B63-41CA-B587-8D93F0D9C5A4}">
   <dimension ref="B2:CX18"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
@@ -17344,6 +17669,2350 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6303B96-B096-4D85-A5CF-156E13114C5E}">
+  <dimension ref="A1:DE10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AZ6" sqref="AZ6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="16384" width="18.25" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:109">
+      <c r="A1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BL1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BU1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BV1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BY1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="BZ1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CA1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CB1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CC1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CD1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CE1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CF1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CG1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CJ1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CK1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CL1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CM1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CN1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CO1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CP1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CQ1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CR1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CS1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CT1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CU1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CV1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CW1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CX1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CY1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="CZ1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="DA1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="DB1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="DC1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="DD1" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="DE1" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:109">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="AL2" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="BA2" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="BB2" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="BC2" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE2" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="BF2" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="BG2" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="BH2" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="BJ2" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="BK2" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="BL2" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="BM2" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="BN2" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="BO2" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="BP2" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="BQ2" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="BR2" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="BS2" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="BT2" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="BU2" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="BV2" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="BW2" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="BX2" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="BY2" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="BZ2" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="CA2" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="CB2" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="CC2" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="CD2" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="CE2" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="CF2" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="CG2" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="CH2" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="CI2" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="CJ2" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="CK2" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="CL2" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM2" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="CN2" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="CO2" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="CP2" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="CQ2" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="CR2" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="CS2" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="CT2" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="CU2" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="CV2" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="CW2" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="CX2" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="CY2" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="CZ2" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="DA2" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="DB2" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="DC2" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="DD2" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="DE2" s="13" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:109">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK3" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AL3" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AM3" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AN3" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AO3" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AR3" s="13" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AU3" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AV3" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AW3" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AX3" s="13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AY3" s="13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>1242</v>
+      </c>
+      <c r="BA3" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BB3" s="13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="BC3" s="13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="BD3" s="13" t="s">
+        <v>1246</v>
+      </c>
+      <c r="BE3" s="13" t="s">
+        <v>1247</v>
+      </c>
+      <c r="BF3" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="BG3" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="BH3" s="13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="BI3" s="13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="BJ3" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="BK3" s="13" t="s">
+        <v>1253</v>
+      </c>
+      <c r="BL3" s="13" t="s">
+        <v>1254</v>
+      </c>
+      <c r="BM3" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="BN3" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="BO3" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="BP3" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="BQ3" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="BR3" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="BS3" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="BT3" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="BU3" s="13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="BV3" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="BW3" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="BX3" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="BY3" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="BZ3" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="CA3" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="CB3" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="CC3" s="13" t="s">
+        <v>1271</v>
+      </c>
+      <c r="CD3" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="CE3" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="CF3" s="13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="CG3" s="13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="CH3" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="CI3" s="13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="CJ3" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="CK3" s="13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="CL3" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="CM3" s="13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="CN3" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="CO3" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="CP3" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="CQ3" s="13" t="s">
+        <v>1285</v>
+      </c>
+      <c r="CR3" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="CS3" s="13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="CT3" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="CU3" s="13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="CV3" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="CW3" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="CX3" s="13" t="s">
+        <v>1292</v>
+      </c>
+      <c r="CY3" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="CZ3" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="DA3" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="DB3" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="DC3" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="DD3" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="DE3" s="13" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:109" s="14" customFormat="1" ht="47.25">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM4" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="AN4" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="AP4" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS4" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AT4" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU4" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV4" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AW4" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="AX4" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="AY4" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="AZ4" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="BA4" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="BB4" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="BC4" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="BD4" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="BE4" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="BF4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG4" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="BH4" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="BI4" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="BJ4" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="BK4" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="BL4" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="BM4" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="BN4" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="BO4" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="BP4" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="BQ4" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="BR4" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="BS4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="BT4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="BU4" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="BV4" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="BW4" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="BX4" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="BY4" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="BZ4" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="CA4" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="CB4" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="CC4" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="CD4" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="CE4" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="CF4" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="CG4" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="CH4" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="CI4" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="CJ4" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="CK4" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="CL4" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="CM4" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="CN4" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="CO4" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="CP4" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="CQ4" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="CR4" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="CS4" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="CT4" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="CU4" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="CV4" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="CW4" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="CX4" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="CY4" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="CZ4" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="DA4" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="DB4" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="DC4" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="DD4" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="DE4" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:109">
+      <c r="A6" s="13">
+        <v>100000000000001</v>
+      </c>
+      <c r="B6" s="13">
+        <v>10000001</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2951</v>
+      </c>
+      <c r="D6" s="13">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2951010001</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1234567</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N6" s="13">
+        <v>11</v>
+      </c>
+      <c r="O6" s="13">
+        <v>620050</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>18620813</v>
+      </c>
+      <c r="R6" s="13">
+        <v>1234567</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <v>1</v>
+      </c>
+      <c r="W6" s="13">
+        <v>100</v>
+      </c>
+      <c r="X6" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>20331011</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AK6" s="24">
+        <v>45833.790358796294</v>
+      </c>
+      <c r="AL6" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN6" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO6" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ6" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="AS6" s="13">
+        <v>13</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="AU6" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="AV6" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="AW6" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="AX6" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY6" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="AZ6" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="BA6" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="BB6" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="BC6" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="BD6" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="13">
+        <v>2</v>
+      </c>
+      <c r="BF6" s="13">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="13">
+        <v>2</v>
+      </c>
+      <c r="BQ6" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="BR6" s="13">
+        <v>999</v>
+      </c>
+      <c r="BS6" s="25">
+        <v>48984</v>
+      </c>
+      <c r="BT6" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="13">
+        <v>-999</v>
+      </c>
+      <c r="BV6" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="BW6" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="BX6" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="BY6" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="BZ6" s="13">
+        <v>-999</v>
+      </c>
+      <c r="CA6" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="CB6" s="13">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="13">
+        <v>-999</v>
+      </c>
+      <c r="CD6" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="CE6" s="13">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="13">
+        <v>2</v>
+      </c>
+      <c r="CG6" s="13">
+        <v>3</v>
+      </c>
+      <c r="CJ6" s="13">
+        <v>-999</v>
+      </c>
+      <c r="CK6" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="CL6" s="13">
+        <v>5</v>
+      </c>
+      <c r="CM6" s="13">
+        <v>6</v>
+      </c>
+      <c r="CN6" s="13">
+        <v>6</v>
+      </c>
+      <c r="CO6" s="13">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="13">
+        <v>6</v>
+      </c>
+      <c r="CQ6" s="13">
+        <v>4</v>
+      </c>
+      <c r="DA6" s="13">
+        <v>10</v>
+      </c>
+      <c r="DB6" s="13">
+        <v>11</v>
+      </c>
+      <c r="DC6" s="13">
+        <v>-999</v>
+      </c>
+      <c r="DD6" s="13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:109">
+      <c r="A7" s="13">
+        <v>100000000000002</v>
+      </c>
+      <c r="B7" s="13">
+        <v>10000002</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2954</v>
+      </c>
+      <c r="D7" s="13">
+        <v>81</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2954081001</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1234567</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N7" s="13">
+        <v>13</v>
+      </c>
+      <c r="O7" s="13">
+        <v>620020</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>18620813</v>
+      </c>
+      <c r="R7" s="13">
+        <v>1234567</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>1</v>
+      </c>
+      <c r="W7" s="13">
+        <v>100</v>
+      </c>
+      <c r="X7" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>20331011</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AK7" s="24">
+        <v>45833.791655092595</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD7" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="13">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="13">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="13">
+        <v>7</v>
+      </c>
+      <c r="BW7" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="BX7" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="BZ7" s="13">
+        <v>620002</v>
+      </c>
+      <c r="CB7" s="13">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="13">
+        <v>1</v>
+      </c>
+      <c r="CH7" s="13">
+        <v>4</v>
+      </c>
+      <c r="CL7" s="13">
+        <v>4</v>
+      </c>
+      <c r="CM7" s="13">
+        <v>4</v>
+      </c>
+      <c r="CN7" s="13">
+        <v>3</v>
+      </c>
+      <c r="CO7" s="13">
+        <v>1</v>
+      </c>
+      <c r="CP7" s="13">
+        <v>3</v>
+      </c>
+      <c r="CQ7" s="13">
+        <v>3</v>
+      </c>
+      <c r="CS7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:109">
+      <c r="A8" s="13">
+        <v>100000000000003</v>
+      </c>
+      <c r="B8" s="13">
+        <v>10000003</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2963</v>
+      </c>
+      <c r="D8" s="13">
+        <v>319</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2963319001</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1234567</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N8" s="13">
+        <v>11</v>
+      </c>
+      <c r="O8" s="13">
+        <v>620021</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>18620813</v>
+      </c>
+      <c r="R8" s="13">
+        <v>1234567</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13">
+        <v>1</v>
+      </c>
+      <c r="W8" s="13">
+        <v>100</v>
+      </c>
+      <c r="X8" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>20331011</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AH8" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AI8" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AJ8" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AK8" s="24">
+        <v>45833.794293981482</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="BC8" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="BD8" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="13">
+        <v>2</v>
+      </c>
+      <c r="BF8" s="13">
+        <v>4</v>
+      </c>
+      <c r="BJ8" s="13">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="13">
+        <v>5</v>
+      </c>
+      <c r="BS8" s="25">
+        <v>45947</v>
+      </c>
+      <c r="BT8" s="13">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="13">
+        <v>4</v>
+      </c>
+      <c r="BW8" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="BX8" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="BY8" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="BZ8" s="13">
+        <v>620002</v>
+      </c>
+      <c r="CB8" s="13">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="13">
+        <v>620002</v>
+      </c>
+      <c r="CF8" s="13">
+        <v>2</v>
+      </c>
+      <c r="CL8" s="13">
+        <v>2</v>
+      </c>
+      <c r="CM8" s="13">
+        <v>2</v>
+      </c>
+      <c r="CN8" s="13">
+        <v>2</v>
+      </c>
+      <c r="CO8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:109">
+      <c r="A9" s="13">
+        <v>100000000000004</v>
+      </c>
+      <c r="B9" s="13">
+        <v>10000004</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2965</v>
+      </c>
+      <c r="D9" s="13">
+        <v>369</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2965369001</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1234567</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N9" s="13">
+        <v>13</v>
+      </c>
+      <c r="O9" s="13">
+        <v>620008</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>18620813</v>
+      </c>
+      <c r="R9" s="13">
+        <v>1234567</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>1325</v>
+      </c>
+      <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="U9" s="13">
+        <v>1</v>
+      </c>
+      <c r="W9" s="13">
+        <v>100</v>
+      </c>
+      <c r="X9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>20331011</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AH9" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AI9" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AJ9" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AK9" s="24">
+        <v>45833.797326388885</v>
+      </c>
+      <c r="AL9" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AN9" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="AO9" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="AP9" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="AQ9" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="BB9" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="BD9" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="13">
+        <v>2</v>
+      </c>
+      <c r="BF9" s="13">
+        <v>7</v>
+      </c>
+      <c r="BM9" s="13">
+        <v>2</v>
+      </c>
+      <c r="BR9" s="13">
+        <v>30</v>
+      </c>
+      <c r="BT9" s="13">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="13">
+        <v>2</v>
+      </c>
+      <c r="BW9" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="BX9" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="BY9" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="BZ9" s="13">
+        <v>620004</v>
+      </c>
+      <c r="CB9" s="13">
+        <v>1</v>
+      </c>
+      <c r="CC9" s="13">
+        <v>620009</v>
+      </c>
+      <c r="CF9" s="13">
+        <v>2</v>
+      </c>
+      <c r="CG9" s="13">
+        <v>3</v>
+      </c>
+      <c r="CL9" s="13">
+        <v>3</v>
+      </c>
+      <c r="CM9" s="13">
+        <v>4</v>
+      </c>
+      <c r="CN9" s="13">
+        <v>3</v>
+      </c>
+      <c r="CO9" s="13">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="13">
+        <v>5</v>
+      </c>
+      <c r="CQ9" s="13">
+        <v>2</v>
+      </c>
+      <c r="CS9" s="13">
+        <v>2</v>
+      </c>
+      <c r="CT9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:109">
+      <c r="A10" s="13">
+        <v>100000000000005</v>
+      </c>
+      <c r="B10" s="13">
+        <v>10000005</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2966</v>
+      </c>
+      <c r="D10" s="13">
+        <v>389</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2966389001</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1234567</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N10" s="13">
+        <v>11</v>
+      </c>
+      <c r="O10" s="13">
+        <v>620050</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>18620813</v>
+      </c>
+      <c r="R10" s="13">
+        <v>1234567</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="13">
+        <v>1</v>
+      </c>
+      <c r="W10" s="13">
+        <v>100</v>
+      </c>
+      <c r="X10" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>20331011</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AH10" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AI10" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AJ10" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AK10" s="24">
+        <v>45833.800949074073</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="AS10" s="13">
+        <v>13</v>
+      </c>
+      <c r="AT10" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="AU10" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="AW10" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="AX10" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY10" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="BB10" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="BD10" s="13">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="13">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="13">
+        <v>9</v>
+      </c>
+      <c r="BW10" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="BX10" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="BZ10" s="13">
+        <v>620019</v>
+      </c>
+      <c r="CB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="13">
+        <v>4</v>
+      </c>
+      <c r="CI10" s="13">
+        <v>5</v>
+      </c>
+      <c r="CL10" s="13">
+        <v>1</v>
+      </c>
+      <c r="CM10" s="13">
+        <v>1</v>
+      </c>
+      <c r="CN10" s="13">
+        <v>1</v>
+      </c>
+      <c r="CO10" s="13">
+        <v>1</v>
+      </c>
+      <c r="CP10" s="13">
+        <v>1</v>
+      </c>
+      <c r="CQ10" s="13">
+        <v>1</v>
+      </c>
+      <c r="CW10" s="13">
+        <v>6</v>
+      </c>
+      <c r="CX10" s="13">
+        <v>7</v>
+      </c>
+      <c r="CZ10" s="13">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5720D06A-38FC-4AEB-8D5A-378EF5DBF2A6}">
   <dimension ref="A1:BV2"/>
   <sheetViews>
@@ -17810,7 +20479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B093CE72-F374-479F-B692-1833423663F6}">
   <dimension ref="A1:DG13"/>
   <sheetViews>
@@ -20547,11 +23216,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284D4327-6F17-4206-A310-B64CE61EAEFD}">
   <dimension ref="B2:EO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -23025,110 +25694,110 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="10" spans="2:145" s="23" customFormat="1">
-      <c r="B10" s="23" t="s">
+    <row r="10" spans="2:145" s="22" customFormat="1">
+      <c r="B10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>1196</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="22" t="s">
         <v>1182</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="22" t="s">
         <v>1183</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="22" t="s">
         <v>1184</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="22" t="s">
         <v>1185</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="22" t="s">
         <v>1186</v>
       </c>
-      <c r="S10" s="23" t="s">
+      <c r="S10" s="22" t="s">
         <v>1182</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="T10" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="U10" s="23" t="s">
+      <c r="U10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="V10" s="23" t="s">
+      <c r="V10" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="X10" s="23" t="s">
+      <c r="X10" s="22" t="s">
         <v>1187</v>
       </c>
-      <c r="Y10" s="23" t="s">
+      <c r="Y10" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="Z10" s="22" t="s">
         <v>1188</v>
       </c>
-      <c r="AA10" s="23" t="s">
+      <c r="AA10" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="AB10" s="23" t="s">
+      <c r="AB10" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="AC10" s="23" t="s">
+      <c r="AC10" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="AD10" s="23" t="s">
+      <c r="AD10" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="AE10" s="23" t="s">
+      <c r="AE10" s="22" t="s">
         <v>1189</v>
       </c>
-      <c r="AF10" s="23" t="s">
+      <c r="AF10" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="AG10" s="23" t="s">
+      <c r="AG10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="AH10" s="23" t="s">
+      <c r="AH10" s="22" t="s">
         <v>1190</v>
       </c>
-      <c r="AI10" s="23" t="s">
+      <c r="AI10" s="22" t="s">
         <v>1191</v>
       </c>
-      <c r="AJ10" s="23" t="s">
+      <c r="AJ10" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="AK10" s="23" t="s">
+      <c r="AK10" s="22" t="s">
         <v>335</v>
       </c>
     </row>

--- a/Documents/新規 Microsoft Excel ワークシート.xlsx
+++ b/Documents/新規 Microsoft Excel ワークシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AFD25D-0839-4DCC-BA34-556F1141F9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10AC820-0F82-402B-AD28-BC9843CB2927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="780" windowWidth="18915" windowHeight="14115" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="1575" windowWidth="18915" windowHeight="14115" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPOテストデータ" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="団体パンチテストデータ" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5307" uniqueCount="1365">
   <si>
     <t>bpo_num</t>
   </si>
@@ -6067,6 +6068,172 @@
   </si>
   <si>
     <t>その他業種０５</t>
+  </si>
+  <si>
+    <t>taba_num</t>
+  </si>
+  <si>
+    <t>img_num</t>
+  </si>
+  <si>
+    <t>fubi_img_num</t>
+  </si>
+  <si>
+    <t>fubi_code</t>
+  </si>
+  <si>
+    <t>束番号</t>
+    <rPh sb="0" eb="3">
+      <t>タババンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画像枚数</t>
+    <rPh sb="0" eb="4">
+      <t>ガゾウマイスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>不備画像枚数</t>
+    <rPh sb="0" eb="6">
+      <t>フビガゾウマイスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>不備コード</t>
+    <rPh sb="0" eb="2">
+      <t>フビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2951</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2954</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2968</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2970</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2972</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1000000001</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1000000002</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1000000004</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1000000005</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ｶﾅ ﾀﾞﾝﾀｲﾒｲｲﾁ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ｶﾅ ｼﾒｲﾆ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ｶﾅ ﾀﾞﾝﾀｲﾒｲｻﾝ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ｶﾅ ｼﾒｲﾖﾝ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1000000003</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ｶﾅ ｼﾒｲｺﾞ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>漢字　氏名２</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>漢字　団体名１</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ダンタイメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>漢字　団体名３</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ダンタイメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>漢字　氏名４</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>漢字　氏名５</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1234567890</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>01;02;03;04;05;06;07;08;09;10;11;12;13;14;15;16;17;18;19;20;21;22;23;24;25;26;27;28;29;30;31;32;33;34;35;36;37;38;39;40;41;42</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>01;02;03;04;05;06;07;08;09;10;11</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>01;02;03;04;05</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -6280,13 +6447,13 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7275,7 +7442,7 @@
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>164</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -7386,7 +7553,7 @@
       </c>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>93</v>
       </c>
@@ -7495,7 +7662,7 @@
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
@@ -7604,7 +7771,7 @@
       </c>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="4" t="s">
         <v>97</v>
       </c>
@@ -7713,7 +7880,7 @@
       </c>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
@@ -7822,7 +7989,7 @@
       </c>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="4" t="s">
         <v>100</v>
       </c>
@@ -7931,7 +8098,7 @@
       </c>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="4" t="s">
         <v>101</v>
       </c>
@@ -8040,7 +8207,7 @@
       </c>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
         <v>102</v>
       </c>
@@ -8149,7 +8316,7 @@
       </c>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
         <v>103</v>
       </c>
@@ -8258,7 +8425,7 @@
       </c>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="4" t="s">
         <v>104</v>
       </c>
@@ -8367,7 +8534,7 @@
       </c>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>105</v>
       </c>
@@ -8476,7 +8643,7 @@
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="4" t="s">
         <v>106</v>
       </c>
@@ -8585,7 +8752,7 @@
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="4" t="s">
         <v>107</v>
       </c>
@@ -8694,7 +8861,7 @@
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="25" t="s">
         <v>165</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -8808,7 +8975,7 @@
       </c>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="4" t="s">
         <v>110</v>
       </c>
@@ -8920,7 +9087,7 @@
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="4" t="s">
         <v>111</v>
       </c>
@@ -9032,7 +9199,7 @@
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>112</v>
       </c>
@@ -9144,7 +9311,7 @@
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="4" t="s">
         <v>113</v>
       </c>
@@ -9256,7 +9423,7 @@
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="4" t="s">
         <v>114</v>
       </c>
@@ -9368,7 +9535,7 @@
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4" t="s">
         <v>115</v>
       </c>
@@ -9480,7 +9647,7 @@
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4" t="s">
         <v>116</v>
       </c>
@@ -9592,7 +9759,7 @@
       </c>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="4" t="s">
         <v>117</v>
       </c>
@@ -9704,7 +9871,7 @@
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="4" t="s">
         <v>118</v>
       </c>
@@ -9816,7 +9983,7 @@
       </c>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="4" t="s">
         <v>109</v>
       </c>
@@ -9928,7 +10095,7 @@
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="4" t="s">
         <v>119</v>
       </c>
@@ -10040,7 +10207,7 @@
       </c>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="4" t="s">
         <v>120</v>
       </c>
@@ -10150,6 +10317,2597 @@
     <mergeCell ref="A8:A20"/>
     <mergeCell ref="A22:A34"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284D4327-6F17-4206-A310-B64CE61EAEFD}">
+  <dimension ref="B2:EO10"/>
+  <sheetViews>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="4"/>
+    <col min="2" max="2" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="67" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="9.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="76" max="79" width="21.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="80" max="83" width="21.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="86" max="88" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="27" style="4" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="18.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="95" max="97" width="19.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="24.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="26.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="28" style="4" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="24.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="109" max="111" width="19.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="24.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="26.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="28" style="4" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="24.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="123" max="125" width="19.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="24.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="129" max="130" width="26.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="28" style="4" bestFit="1" customWidth="1"/>
+    <col min="135" max="136" width="24.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="137" max="138" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="139" max="140" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="22.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="143" max="145" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="146" max="16384" width="2.625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:145" s="3" customFormat="1">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="CP2" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="CQ2" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="CR2" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="CS2" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="CV2" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="CW2" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="CX2" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="CY2" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="CZ2" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="DA2" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="DB2" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="DC2" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="DD2" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="DE2" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="DF2" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="DG2" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="DH2" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="DI2" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="DK2" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="DL2" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="DM2" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="DN2" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="DO2" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="DP2" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="DR2" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="DS2" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="DT2" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="DU2" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="DV2" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="DW2" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="DX2" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="DY2" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="DZ2" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="EA2" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="EB2" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="EC2" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="ED2" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="EE2" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="EF2" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="EG2" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="EH2" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="EI2" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="EJ2" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="EK2" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EL2" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="EM2" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="EN2" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="EO2" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="3" spans="2:145" s="3" customFormat="1">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="CK3" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="CO3" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="CP3" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="CR3" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="CU3" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="CW3" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="CX3" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="DA3" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="DD3" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="DG3" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="DH3" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="DI3" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="DJ3" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="DL3" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="DM3" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="DN3" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="DO3" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="DR3" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="DS3" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="DT3" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="DU3" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="DV3" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="DW3" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="DX3" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="DY3" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="DZ3" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="EA3" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="EB3" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="EC3" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="ED3" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="EE3" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="EF3" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="EG3" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="EH3" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="EI3" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="EJ3" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="EK3" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="EL3" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="EM3" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="EN3" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="EO3" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="4" spans="2:145" s="3" customFormat="1">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="BL4" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="BM4" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="BN4" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="BO4" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="BR4" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="BS4" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="BU4" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="BV4" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="BX4" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="BY4" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="CA4" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="CB4" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="CC4" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="CD4" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="CE4" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="CG4" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="CH4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="CJ4" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="CK4" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="CL4" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="CM4" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="CN4" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="CO4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="CP4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="CQ4" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="CR4" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="CS4" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="CT4" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="CU4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="CV4" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="CW4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="CX4" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="CY4" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="CZ4" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="DA4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="DB4" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="DC4" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="DD4" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="DE4" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="DF4" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="DG4" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="DH4" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="DI4" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="DJ4" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="DK4" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="DL4" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="DM4" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="DN4" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="DO4" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="DP4" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="DQ4" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="DR4" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="DS4" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="DT4" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="DU4" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="DV4" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="DW4" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="DX4" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="DY4" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="DZ4" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="EA4" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="EB4" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="EC4" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="ED4" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="EE4" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="EF4" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="EG4" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="EH4" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="EI4" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="EJ4" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="EK4" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="EL4" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="EM4" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="EN4" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="EO4" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" spans="2:145">
+      <c r="B6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O6" s="4">
+        <v>21</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="BP6" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="BU6" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="BW6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX6" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="CB6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD6" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="CF6" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="CG6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH6" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="CI6" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="CJ6" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="CO6" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="CP6" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="CR6" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="CT6" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="CV6" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="CW6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="CY6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ6" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="DB6" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="DC6" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DD6" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="DE6" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="DF6" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="DG6" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="DH6" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="DJ6" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="DK6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="DM6" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="DN6" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="DO6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="DP6" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="DQ6" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="DR6" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="DS6" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="DT6" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="DU6" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="DV6" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="DX6" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="DY6" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="EA6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="EB6" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="ED6" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="EE6" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="EF6" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="EG6" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="EH6" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="EI6" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EJ6" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EK6" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="EL6" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="EO6" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="7" spans="2:145">
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O7" s="4">
+        <v>31</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG7" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ7" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="BS7" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="BU7" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="BW7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ7" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="CK7" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CL7" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="CM7" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="CQ7" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="CR7" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="CS7" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="CT7" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="CV7" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="CW7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="CY7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ7" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="DB7" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="DC7" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="DD7" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="EG7" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="EH7" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="EI7" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EJ7" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EK7" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="EL7" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="EM7" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="EN7" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="EO7" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="8" spans="2:145">
+      <c r="B8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AV8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW8" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY8" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AZ8" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="BA8" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="BB8" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="BC8" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BD8" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BE8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF8" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG8" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BH8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="BL8" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="BM8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BN8" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="BP8" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="BQ8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS8" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="BU8" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="BW8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX8" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="BZ8" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="CB8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD8" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="CF8" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="CG8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH8" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="CI8" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="CJ8" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="CK8" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CL8" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="CM8" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="CN8" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="CO8" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="CP8" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="EG8" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="EH8" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="EI8" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EJ8" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EK8" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="EL8" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="EM8" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="EN8" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="EO8" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="9" spans="2:145">
+      <c r="B9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG9" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ9" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="BS9" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="BU9" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="BW9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ9" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="CK9" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="CL9" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="CM9" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="EG9" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="EH9" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="EI9" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EJ9" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EK9" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="EL9" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="EM9" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="EN9" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="EO9" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="10" spans="2:145" s="22" customFormat="1">
+      <c r="B10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>1186</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>1182</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="U10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="X10" s="22" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Y10" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB10" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC10" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD10" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE10" s="22" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AF10" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="22" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AI10" s="22" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AJ10" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK10" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17672,7 +20430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6303B96-B096-4D85-A5CF-156E13114C5E}">
   <dimension ref="A1:DE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+    <sheetView topLeftCell="AW1" workbookViewId="0">
       <selection activeCell="AZ6" sqref="AZ6"/>
     </sheetView>
   </sheetViews>
@@ -19103,7 +21861,7 @@
       <c r="AJ6" s="13" t="s">
         <v>1308</v>
       </c>
-      <c r="AK6" s="24">
+      <c r="AK6" s="23">
         <v>45833.790358796294</v>
       </c>
       <c r="AL6" s="13">
@@ -19178,7 +21936,7 @@
       <c r="BR6" s="13">
         <v>999</v>
       </c>
-      <c r="BS6" s="25">
+      <c r="BS6" s="24">
         <v>48984</v>
       </c>
       <c r="BT6" s="13">
@@ -19366,7 +22124,7 @@
       <c r="AJ7" s="13" t="s">
         <v>1308</v>
       </c>
-      <c r="AK7" s="24">
+      <c r="AK7" s="23">
         <v>45833.791655092595</v>
       </c>
       <c r="AL7" s="13">
@@ -19536,7 +22294,7 @@
       <c r="AJ8" s="13" t="s">
         <v>1308</v>
       </c>
-      <c r="AK8" s="24">
+      <c r="AK8" s="23">
         <v>45833.794293981482</v>
       </c>
       <c r="AL8" s="13">
@@ -19566,7 +22324,7 @@
       <c r="BR8" s="13">
         <v>5</v>
       </c>
-      <c r="BS8" s="25">
+      <c r="BS8" s="24">
         <v>45947</v>
       </c>
       <c r="BT8" s="13">
@@ -19715,7 +22473,7 @@
       <c r="AJ9" s="13" t="s">
         <v>1308</v>
       </c>
-      <c r="AK9" s="24">
+      <c r="AK9" s="23">
         <v>45833.797326388885</v>
       </c>
       <c r="AL9" s="13">
@@ -19918,7 +22676,7 @@
       <c r="AJ10" s="13" t="s">
         <v>1308</v>
       </c>
-      <c r="AK10" s="24">
+      <c r="AK10" s="23">
         <v>45833.800949074073</v>
       </c>
       <c r="AL10" s="13">
@@ -20013,6 +22771,323 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B827410-8436-4DB8-867A-8636D6617866}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="29" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5720D06A-38FC-4AEB-8D5A-378EF5DBF2A6}">
   <dimension ref="A1:BV2"/>
   <sheetViews>
@@ -20479,7 +23554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B093CE72-F374-479F-B692-1833423663F6}">
   <dimension ref="A1:DG13"/>
   <sheetViews>
@@ -23214,2595 +26289,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284D4327-6F17-4206-A310-B64CE61EAEFD}">
-  <dimension ref="B2:EO10"/>
-  <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="2.625" style="4"/>
-    <col min="2" max="2" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="23.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="67" width="13.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="9.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="76" max="79" width="21.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="80" max="83" width="21.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="86" max="88" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="89" max="90" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="27" style="4" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="18.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="95" max="97" width="19.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="98" max="99" width="24.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="26.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="21.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="28" style="4" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="24.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="109" max="111" width="19.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="24.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="115" max="116" width="26.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="21.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="28" style="4" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="24.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="123" max="125" width="19.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="126" max="127" width="24.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="129" max="130" width="26.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="21.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="28" style="4" bestFit="1" customWidth="1"/>
-    <col min="135" max="136" width="24.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="137" max="138" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="139" max="140" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="143" max="145" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="146" max="16384" width="2.625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:145" s="3" customFormat="1">
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="BX2" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="BY2" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BZ2" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="CA2" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="CB2" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="CC2" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="CD2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="CF2" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="CG2" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="CH2" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="CI2" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="CJ2" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="CK2" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="CL2" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="CM2" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="CN2" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="CO2" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="CP2" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="CQ2" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="CR2" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="CS2" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="CT2" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="CU2" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="CV2" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="CW2" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="CX2" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="CY2" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="CZ2" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="DA2" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="DB2" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="DC2" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="DD2" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="DE2" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="DF2" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="DG2" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="DH2" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="DI2" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="DJ2" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="DK2" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="DL2" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="DM2" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="DN2" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="DO2" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="DP2" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="DQ2" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="DR2" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="DS2" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="DT2" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="DU2" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="DV2" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="DW2" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="DX2" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="DY2" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="DZ2" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="EA2" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="EB2" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="EC2" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="ED2" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="EE2" s="3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="EF2" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="EG2" s="3" t="s">
-        <v>1169</v>
-      </c>
-      <c r="EH2" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="EI2" s="3" t="s">
-        <v>1171</v>
-      </c>
-      <c r="EJ2" s="3" t="s">
-        <v>1172</v>
-      </c>
-      <c r="EK2" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="EL2" s="3" t="s">
-        <v>1174</v>
-      </c>
-      <c r="EM2" s="3" t="s">
-        <v>1175</v>
-      </c>
-      <c r="EN2" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="EO2" s="3" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="3" spans="2:145" s="3" customFormat="1">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="BS3" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="BX3" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="BY3" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="CB3" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="CC3" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="CD3" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="CE3" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>1013</v>
-      </c>
-      <c r="CI3" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="CK3" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="CL3" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="CM3" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="CN3" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="CO3" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="CP3" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="CT3" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="CU3" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="CV3" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="CW3" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="DA3" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="DB3" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="DC3" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="DD3" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="DE3" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="DF3" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="DG3" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="DH3" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="DI3" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="DL3" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="DM3" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="DN3" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="DO3" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="DQ3" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="DR3" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="DS3" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="DT3" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="DU3" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="DV3" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="DW3" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="DX3" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="DY3" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="DZ3" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="EA3" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="EB3" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="EC3" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="ED3" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="EE3" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="EF3" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="EG3" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="EH3" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="EI3" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="EJ3" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="EK3" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="EL3" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="EM3" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="EN3" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="EO3" s="3" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="4" spans="2:145" s="3" customFormat="1">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="BA4" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="BB4" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="BG4" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="BH4" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="BI4" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="BJ4" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="BK4" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="BL4" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="BM4" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="BN4" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="BO4" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="BP4" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="BQ4" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="BR4" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="BS4" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="BT4" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="BU4" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="BV4" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="BW4" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="BX4" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="BY4" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="BZ4" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="CA4" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="CB4" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="CC4" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="CD4" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="CE4" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="CF4" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="CG4" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="CH4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="CI4" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="CJ4" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="CK4" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="CL4" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="CM4" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="CN4" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="CO4" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="CP4" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="CQ4" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="CR4" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="CS4" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="CT4" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="CU4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="CV4" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="CW4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="CX4" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="CY4" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="CZ4" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="DA4" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="DB4" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="DC4" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="DD4" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="DE4" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="DF4" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="DG4" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="DH4" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="DI4" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="DJ4" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="DK4" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="DL4" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="DM4" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="DN4" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="DO4" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="DP4" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="DQ4" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="DR4" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="DS4" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="DT4" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="DU4" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="DV4" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="DW4" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="DX4" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="DY4" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="DZ4" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="EA4" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="EB4" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="EC4" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="ED4" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="EE4" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="EF4" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="EG4" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="EH4" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="EI4" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="EJ4" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="EK4" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="EL4" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="EM4" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="EN4" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="EO4" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="6" spans="2:145">
-      <c r="B6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O6" s="4">
-        <v>21</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM6" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="BP6" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="BQ6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS6" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="BU6" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="BW6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX6" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="BZ6" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="CB6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD6" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="CF6" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="CG6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH6" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="CI6" s="4" t="s">
-        <v>1205</v>
-      </c>
-      <c r="CJ6" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="CK6" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="CN6" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="CO6" s="4" t="s">
-        <v>1109</v>
-      </c>
-      <c r="CP6" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="CQ6" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="CR6" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="CS6" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="CT6" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="CV6" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="CW6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="CY6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CZ6" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="DB6" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="DC6" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="DD6" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="DE6" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="DF6" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="DG6" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="DH6" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="DJ6" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="DK6" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="DM6" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="DN6" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="DO6" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="DP6" s="4" t="s">
-        <v>1217</v>
-      </c>
-      <c r="DQ6" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="DR6" s="4" t="s">
-        <v>1218</v>
-      </c>
-      <c r="DS6" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="DT6" s="4" t="s">
-        <v>1219</v>
-      </c>
-      <c r="DU6" s="4" t="s">
-        <v>1220</v>
-      </c>
-      <c r="DV6" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="DX6" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="DY6" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="EA6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="EB6" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="ED6" s="4" t="s">
-        <v>1221</v>
-      </c>
-      <c r="EE6" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="EF6" s="4" t="s">
-        <v>1222</v>
-      </c>
-      <c r="EG6" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="EH6" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="EI6" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="EJ6" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EK6" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="EL6" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="EM6" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="EN6" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="EO6" s="4" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="7" spans="2:145">
-      <c r="B7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="O7" s="4">
-        <v>31</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="BH7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ7" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="BS7" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="BU7" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="BW7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="CG7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="CJ7" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="CK7" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="CL7" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="CM7" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="CQ7" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="CR7" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="CS7" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="CT7" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="CV7" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="CW7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="CY7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CZ7" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="DB7" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="DC7" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="DD7" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="EG7" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="EH7" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="EI7" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="EJ7" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EK7" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="EL7" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="EM7" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="EN7" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="EO7" s="4" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="8" spans="2:145">
-      <c r="B8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT8" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AV8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY8" s="4" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AZ8" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="BA8" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="BB8" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="BC8" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="BE8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF8" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="BG8" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="BH8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI8" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK8" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL8" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="BN8" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="BP8" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="BQ8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS8" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="BU8" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="BW8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX8" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="BZ8" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="CB8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD8" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="CF8" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="CG8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH8" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="CI8" s="4" t="s">
-        <v>1205</v>
-      </c>
-      <c r="CJ8" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="CK8" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="CL8" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="CM8" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="CN8" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="CO8" s="4" t="s">
-        <v>1109</v>
-      </c>
-      <c r="CP8" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="EG8" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="EH8" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="EI8" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="EJ8" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EK8" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="EL8" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="EM8" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="EN8" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="EO8" s="4" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="9" spans="2:145">
-      <c r="B9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="BH9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ9" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="BS9" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="BU9" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="BW9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="CG9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="CJ9" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="CK9" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="CL9" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="CM9" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="EG9" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="EH9" s="4" t="s">
-        <v>1223</v>
-      </c>
-      <c r="EI9" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="EJ9" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="EK9" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="EL9" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="EM9" s="4" t="s">
-        <v>1182</v>
-      </c>
-      <c r="EN9" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="EO9" s="4" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="10" spans="2:145" s="22" customFormat="1">
-      <c r="B10" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>1183</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>1184</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>1185</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>1186</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>1182</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="U10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>1187</v>
-      </c>
-      <c r="Y10" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC10" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD10" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE10" s="22" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AF10" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH10" s="22" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AI10" s="22" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AJ10" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK10" s="22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>